--- a/data/Copia di Copia di matrice Marko-3_Martin.xlsx
+++ b/data/Copia di Copia di matrice Marko-3_Martin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmarzi/MLprojects/soil_food_webs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C293CC-D341-3243-BD1F-5D21CCAF339B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6106AC38-82C7-3943-8A5A-3AD6EE3D5B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3520" yWindow="-21140" windowWidth="38060" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
     <t>CONSUMERS</t>
   </si>
   <si>
-    <t># Plant autotrophs (roots)</t>
+    <t>00 Plant autotrophs (roots)</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
